--- a/CPI_data_complete.xlsx
+++ b/CPI_data_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njshi\Documents\GitHub\STAT_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA297DB7-75AD-40BA-96A8-0A2ED1E6AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B83CB-7DA8-43C9-B220-48D43D7DE7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14794B64-BD55-45E2-966C-D4DD5C0CEBE5}"/>
   </bookViews>
@@ -469,13 +469,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA41F09-9771-47C3-9D22-6ECBE00507A5}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1236,7 @@
       <c r="AT5" s="1"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="61">
@@ -2244,7 +2244,7 @@
       <c r="AT17" s="1"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="61">
@@ -3043,7 +3043,7 @@
         <v>521.23099999999999</v>
       </c>
       <c r="O27" s="3">
-        <v>521.23099999999999</v>
+        <v>94.293000000000006</v>
       </c>
       <c r="P27" s="3">
         <v>95.781999999999996</v>
@@ -3139,7 +3139,7 @@
         <v>521.375</v>
       </c>
       <c r="O28" s="3">
-        <v>521.375</v>
+        <v>94.507000000000005</v>
       </c>
       <c r="P28" s="3">
         <v>95.379000000000005</v>
@@ -3235,7 +3235,7 @@
         <v>523.87599999999998</v>
       </c>
       <c r="O29" s="3">
-        <v>523.87599999999998</v>
+        <v>95.537999999999997</v>
       </c>
       <c r="P29" s="3">
         <v>94.864000000000004</v>
@@ -3288,7 +3288,7 @@
       <c r="AT29" s="1"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="65" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="3">
@@ -3331,7 +3331,7 @@
         <v>522.11599999999999</v>
       </c>
       <c r="O30" s="3">
-        <v>522.11599999999999</v>
+        <v>96.210999999999999</v>
       </c>
       <c r="P30" s="3">
         <v>96.003</v>
@@ -3427,7 +3427,7 @@
         <v>519.86099999999999</v>
       </c>
       <c r="O31" s="3">
-        <v>519.86099999999999</v>
+        <v>95.965000000000003</v>
       </c>
       <c r="P31" s="3">
         <v>95.451999999999998</v>
@@ -3523,7 +3523,7 @@
         <v>519.95699999999999</v>
       </c>
       <c r="O32" s="3">
-        <v>519.95699999999999</v>
+        <v>96.561999999999998</v>
       </c>
       <c r="P32" s="3">
         <v>95.572000000000003</v>
@@ -3619,7 +3619,7 @@
         <v>519.72900000000004</v>
       </c>
       <c r="O33" s="3">
-        <v>519.72900000000004</v>
+        <v>95.846999999999994</v>
       </c>
       <c r="P33" s="3">
         <v>96.435000000000002</v>
@@ -3715,7 +3715,7 @@
         <v>521.50599999999997</v>
       </c>
       <c r="O34" s="3">
-        <v>521.50599999999997</v>
+        <v>95.929000000000002</v>
       </c>
       <c r="P34" s="3">
         <v>97.361999999999995</v>
@@ -3789,7 +3789,7 @@
         <v>523.86199999999997</v>
       </c>
       <c r="O35" s="3">
-        <v>523.86199999999997</v>
+        <v>96.887</v>
       </c>
       <c r="P35" s="3">
         <v>97.623999999999995</v>
@@ -3863,7 +3863,7 @@
         <v>524.50900000000001</v>
       </c>
       <c r="O36" s="3">
-        <v>524.50900000000001</v>
+        <v>97.119</v>
       </c>
       <c r="P36" s="3">
         <v>97.191999999999993</v>
@@ -3937,7 +3937,7 @@
         <v>525.25099999999998</v>
       </c>
       <c r="O37" s="3">
-        <v>525.25099999999998</v>
+        <v>96.751999999999995</v>
       </c>
       <c r="P37" s="3">
         <v>97.691999999999993</v>
@@ -4011,7 +4011,7 @@
         <v>532.04399999999998</v>
       </c>
       <c r="O38" s="3">
-        <v>532.04399999999998</v>
+        <v>96.42</v>
       </c>
       <c r="P38" s="3">
         <v>98.971000000000004</v>
@@ -4085,7 +4085,7 @@
         <v>533.59199999999998</v>
       </c>
       <c r="O39" s="3">
-        <v>533.59199999999998</v>
+        <v>97.12</v>
       </c>
       <c r="P39" s="3">
         <v>98.486999999999995</v>
@@ -4174,16 +4174,16 @@
       <c r="AR55" s="59"/>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="52"/>
